--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/2000_pieces_Veg Momo 25 Gm 2000.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/2000_pieces_Veg Momo 25 Gm 2000.xlsx
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1050</v>
+        <v>3500</v>
       </c>
       <c r="D2">
         <v>0.08</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>525</v>
+        <v>1750</v>
       </c>
       <c r="D3">
         <v>0.26</v>
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="D4">
         <v>0.08</v>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1050</v>
+        <v>3500</v>
       </c>
       <c r="D6">
         <v>0.05</v>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>0.28</v>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>0.28</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D10">
         <v>0.12</v>
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>0.12</v>
@@ -614,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D12">
         <v>0.15</v>
@@ -628,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="D13">
         <v>0.21</v>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0.75</v>
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D15">
         <v>0.1411764705882353</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0.1494117647058824</v>
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>0.045</v>
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0.027</v>
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D19">
         <v>0.041</v>
